--- a/data/trans_orig/IFINALB_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IFINALB_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75AD1311-262C-4D0F-B0DD-FFC88F372CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7494163E-5C95-4E98-8E4C-FC6CA15F0D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F0471608-4F02-4636-BA5D-A93A4A194FC6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B886906-D482-40D5-84DB-12333C6AD380}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -107,67 +107,67 @@
     <t>2,26%</t>
   </si>
   <si>
-    <t>7,43%</t>
+    <t>8,05%</t>
   </si>
   <si>
     <t>1,05%</t>
   </si>
   <si>
-    <t>3,93%</t>
+    <t>3,75%</t>
   </si>
   <si>
     <t>12,28%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
   </si>
   <si>
     <t>14,56%</t>
   </si>
   <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
   </si>
   <si>
     <t>87,72%</t>
   </si>
   <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
   </si>
   <si>
     <t>83,18%</t>
   </si>
   <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
   </si>
   <si>
     <t>85,61%</t>
   </si>
   <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -176,136 +176,136 @@
     <t>1,7%</t>
   </si>
   <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
     <t>0,8%</t>
   </si>
   <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
   </si>
   <si>
     <t>16,0%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
   </si>
   <si>
     <t>16,09%</t>
   </si>
   <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
   </si>
   <si>
     <t>16,04%</t>
   </si>
   <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
   </si>
   <si>
     <t>82,99%</t>
   </si>
   <si>
-    <t>77,0%</t>
+    <t>77,37%</t>
   </si>
   <si>
     <t>87,7%</t>
@@ -314,100 +314,100 @@
     <t>83,35%</t>
   </si>
   <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
   </si>
   <si>
     <t>83,16%</t>
   </si>
   <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>86,3%</t>
   </si>
   <si>
     <t>1,4%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
   </si>
   <si>
     <t>1,35%</t>
   </si>
   <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>1,37%</t>
   </si>
   <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
   </si>
   <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
   </si>
   <si>
     <t>13,3%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
   </si>
   <si>
     <t>85,06%</t>
   </si>
   <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
   </si>
   <si>
     <t>85,35%</t>
   </si>
   <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>82,75%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>85,2%</t>
   </si>
   <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>86,96%</t>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -822,7 +822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6676AA-2136-4769-BA86-8B9793E65523}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC67E21-7E0B-4757-9CE7-D96D2192AFB7}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1556,13 +1556,13 @@
         <v>1764</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>1</v>
@@ -1571,13 +1571,13 @@
         <v>848</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
         <v>3</v>
@@ -1586,7 +1586,7 @@
         <v>2613</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>77</v>

--- a/data/trans_orig/IFINALB_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IFINALB_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7494163E-5C95-4E98-8E4C-FC6CA15F0D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE2E3735-8C57-49D0-A18F-574E412EBE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6B886906-D482-40D5-84DB-12333C6AD380}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{58451793-2C9C-49B7-A331-CFF5A7F57EE6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
   <si>
     <t>Adulto entrevistado según su cooperación durante la entrevista en 2023 (Tasa respuesta: 99,9%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,349 +65,334 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Regular</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,96%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
+    <t>6,52%</t>
+  </si>
+  <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
   </si>
   <si>
     <t>Buena</t>
   </si>
   <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
     <t>Excelente</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>78,43%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>85,85%</t>
+  </si>
+  <si>
+    <t>82,65%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>87,7%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>78,63%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>86,3%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>88,0%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>75,66%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>83,39%</t>
   </si>
   <si>
-    <t>86,8%</t>
+    <t>88,42%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -822,8 +807,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DC67E21-7E0B-4757-9CE7-D96D2192AFB7}">
-  <dimension ref="A1:Q24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88DAA9E5-9E55-4D93-895F-A109BAD298DF}">
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -940,17 +925,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>1069</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -962,123 +949,127 @@
         <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>1069</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>8258</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>7574</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>15832</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>60</v>
+      </c>
+      <c r="D6" s="7">
+        <v>45351</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>54430</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>99781</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1087,202 +1078,204 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D7" s="7">
+        <v>54678</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I7" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>6285</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I8" s="7">
-        <v>1157</v>
+        <v>8484</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="N8" s="7">
-        <v>1157</v>
+        <v>14769</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D9" s="7">
-        <v>7214</v>
+        <v>52861</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="H9" s="7">
-        <v>7</v>
+        <v>91</v>
       </c>
       <c r="I9" s="7">
-        <v>7457</v>
+        <v>64599</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="M9" s="7">
-        <v>16</v>
+        <v>175</v>
       </c>
       <c r="N9" s="7">
-        <v>14671</v>
+        <v>117460</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>549</v>
       </c>
       <c r="D10" s="7">
-        <v>51543</v>
+        <v>399357</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
-        <v>60</v>
+        <v>555</v>
       </c>
       <c r="I10" s="7">
-        <v>42589</v>
+        <v>443536</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
-        <v>134</v>
+        <v>1104</v>
       </c>
       <c r="N10" s="7">
-        <v>94131</v>
+        <v>842894</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1291,204 +1284,204 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>83</v>
+        <v>641</v>
       </c>
       <c r="D11" s="7">
-        <v>58757</v>
+        <v>458504</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>656</v>
       </c>
       <c r="I11" s="7">
-        <v>51202</v>
+        <v>516619</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M11" s="7">
-        <v>152</v>
+        <v>1297</v>
       </c>
       <c r="N11" s="7">
-        <v>109959</v>
+        <v>975123</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>8379</v>
+        <v>757</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>6784</v>
+        <v>1573</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="M12" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="N12" s="7">
-        <v>15163</v>
+        <v>2330</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>53</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C13" s="7">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="D13" s="7">
-        <v>63100</v>
+        <v>23377</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
-        <v>84</v>
+        <v>40</v>
       </c>
       <c r="I13" s="7">
-        <v>54879</v>
+        <v>29787</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>59</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
-        <v>175</v>
+        <v>81</v>
       </c>
       <c r="N13" s="7">
-        <v>117979</v>
+        <v>53164</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C14" s="7">
-        <v>555</v>
+        <v>188</v>
       </c>
       <c r="D14" s="7">
-        <v>420885</v>
+        <v>125417</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="H14" s="7">
-        <v>549</v>
+        <v>196</v>
       </c>
       <c r="I14" s="7">
-        <v>386278</v>
+        <v>151989</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
-        <v>1104</v>
+        <v>384</v>
       </c>
       <c r="N14" s="7">
-        <v>807165</v>
+        <v>277407</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1497,204 +1490,204 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>656</v>
+        <v>230</v>
       </c>
       <c r="D15" s="7">
-        <v>492364</v>
+        <v>149551</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H15" s="7">
-        <v>641</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>447941</v>
+        <v>183349</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M15" s="7">
-        <v>1297</v>
+        <v>468</v>
       </c>
       <c r="N15" s="7">
-        <v>940306</v>
+        <v>332900</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D16" s="7">
-        <v>1764</v>
+        <v>8111</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="7">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H16" s="7">
-        <v>1</v>
-      </c>
       <c r="I16" s="7">
-        <v>848</v>
+        <v>10057</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="N16" s="7">
-        <v>2613</v>
+        <v>18168</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>40</v>
+        <v>132</v>
       </c>
       <c r="D17" s="7">
-        <v>27940</v>
+        <v>84496</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="I17" s="7">
-        <v>24353</v>
+        <v>101960</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
-        <v>81</v>
+        <v>272</v>
       </c>
       <c r="N17" s="7">
-        <v>52293</v>
+        <v>186456</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>196</v>
+        <v>797</v>
       </c>
       <c r="D18" s="7">
-        <v>144879</v>
+        <v>570126</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
-        <v>188</v>
+        <v>825</v>
       </c>
       <c r="I18" s="7">
-        <v>126169</v>
+        <v>649956</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
-        <v>384</v>
+        <v>1622</v>
       </c>
       <c r="N18" s="7">
-        <v>271047</v>
+        <v>1220081</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1703,267 +1696,60 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>238</v>
+        <v>940</v>
       </c>
       <c r="D19" s="7">
-        <v>174583</v>
+        <v>662733</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="H19" s="7">
-        <v>230</v>
+        <v>977</v>
       </c>
       <c r="I19" s="7">
-        <v>151370</v>
+        <v>761972</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M19" s="7">
-        <v>468</v>
+        <v>1917</v>
       </c>
       <c r="N19" s="7">
-        <v>325952</v>
+        <v>1424705</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="7">
-        <v>12</v>
-      </c>
-      <c r="D20" s="7">
-        <v>10143</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="7">
-        <v>11</v>
-      </c>
-      <c r="I20" s="7">
-        <v>8789</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="7">
-        <v>23</v>
-      </c>
-      <c r="N20" s="7">
-        <v>18932</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="7">
-        <v>140</v>
-      </c>
-      <c r="D21" s="7">
-        <v>98254</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H21" s="7">
-        <v>132</v>
-      </c>
-      <c r="I21" s="7">
-        <v>86688</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M21" s="7">
-        <v>272</v>
-      </c>
-      <c r="N21" s="7">
-        <v>184942</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7">
-        <v>825</v>
-      </c>
-      <c r="D22" s="7">
-        <v>617307</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H22" s="7">
-        <v>798</v>
-      </c>
-      <c r="I22" s="7">
-        <v>556207</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K22" s="7" t="s">
+      <c r="A20" t="s">
         <v>119</v>
       </c>
-      <c r="L22" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M22" s="7">
-        <v>1623</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1173513</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23" s="7">
-        <v>977</v>
-      </c>
-      <c r="D23" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="7">
-        <v>941</v>
-      </c>
-      <c r="I23" s="7">
-        <v>651684</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1918</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1377388</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>124</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
